--- a/doc/일정관리/일정관리.xlsx
+++ b/doc/일정관리/일정관리.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="13740" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="13740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="1월" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>일 SUN</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -109,6 +109,54 @@
   </si>
   <si>
     <t>수료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구사항정의서</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>문서목록</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>시나리오</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구사항정의서</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구사항명세서</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>스토리보드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>유즈케이스</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스다이어그램</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>시퀀스다이어그램</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB설계</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>시나리오, 요구사항정의서, 요구사항명세서, 스토리보드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB검사 받기</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -121,7 +169,7 @@
     <numFmt numFmtId="177" formatCode="[$-409]mmmm&quot;-&quot;yy;@"/>
     <numFmt numFmtId="178" formatCode="d"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -230,8 +278,25 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,8 +321,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -295,13 +366,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -324,9 +404,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="178" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -342,23 +419,41 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="열어 본 하이퍼링크" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
@@ -654,7 +749,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -665,10 +760,10 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37:J38"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
@@ -676,22 +771,23 @@
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="8" width="22.109375" customWidth="1"/>
     <col min="9" max="9" width="3.33203125" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="92.25">
+    <row r="1" spans="1:10" ht="92.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="10">
+      <c r="B1" s="19">
         <v>1</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="21">
+    <row r="2" spans="1:10" ht="21">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -704,8 +800,11 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -715,12 +814,18 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="2"/>
       <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" ht="26.1" customHeight="1" thickBot="1">
+      <c r="J4" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="26.1" customHeight="1" thickBot="1">
       <c r="A5" s="2"/>
       <c r="B5" s="5" t="s">
         <v>0</v>
@@ -744,8 +849,11 @@
         <v>6</v>
       </c>
       <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" ht="19.5">
+      <c r="J5" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="19.5">
       <c r="A6" s="2"/>
       <c r="B6" s="6">
         <f>DATE(2019,$B$1,1)-WEEKDAY(DATE(2020,$B$1,1)) + 1</f>
@@ -776,32 +884,54 @@
         <v>43469</v>
       </c>
       <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="2"/>
       <c r="B7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="F7" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
       <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="2"/>
       <c r="B8" s="4"/>
+      <c r="F8" s="26" t="s">
+        <v>24</v>
+      </c>
       <c r="H8" s="4"/>
       <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="2"/>
       <c r="B9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="2"/>
       <c r="B10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" ht="19.5">
+      <c r="J10" s="23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="19.5">
       <c r="A11" s="2"/>
       <c r="B11" s="6">
         <f>B6+7</f>
@@ -833,29 +963,27 @@
       </c>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10">
       <c r="A12" s="2"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="8"/>
+      <c r="C12" s="25" t="s">
+        <v>35</v>
+      </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="4"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10">
       <c r="A13" s="2"/>
       <c r="B13" s="4"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="4"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:10">
       <c r="A14" s="2"/>
       <c r="B14" s="4"/>
       <c r="C14" s="8"/>
@@ -866,7 +994,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:10">
       <c r="A15" s="2"/>
       <c r="B15" s="4"/>
       <c r="C15" s="8"/>
@@ -877,7 +1005,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" ht="19.5">
+    <row r="16" spans="1:10" ht="19.5">
       <c r="A16" s="2"/>
       <c r="B16" s="6">
         <f>B11+7</f>
@@ -912,7 +1040,6 @@
     <row r="17" spans="1:9">
       <c r="A17" s="2"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
@@ -971,15 +1098,15 @@
         <f t="shared" si="3"/>
         <v>43487</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="27">
         <f t="shared" si="3"/>
         <v>43488</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="10">
         <f t="shared" si="3"/>
         <v>43489</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="14">
         <f t="shared" si="3"/>
         <v>43490</v>
       </c>
@@ -991,9 +1118,9 @@
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="16" t="s">
+      <c r="F22" s="28"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="15" t="s">
         <v>19</v>
       </c>
       <c r="I22" s="2"/>
@@ -1001,34 +1128,34 @@
     <row r="23" spans="1:9">
       <c r="A23" s="2"/>
       <c r="B23" s="4"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="13"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="12"/>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="2"/>
       <c r="B24" s="4"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="13"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="12"/>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="2"/>
       <c r="B25" s="4"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="13"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="12"/>
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9" ht="19.5">
       <c r="A26" s="2"/>
-      <c r="B26" s="15">
+      <c r="B26" s="14">
         <f>B21+7</f>
         <v>43491</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="10">
         <f t="shared" ref="C26:H26" si="4">C21+7</f>
         <v>43492</v>
       </c>
@@ -1056,25 +1183,29 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="2"/>
-      <c r="B27" s="13"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="13"/>
       <c r="H27" s="4"/>
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="2"/>
-      <c r="B28" s="13"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="13"/>
       <c r="H28" s="4"/>
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="2"/>
-      <c r="B29" s="13"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="13"/>
       <c r="H29" s="4"/>
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="2"/>
-      <c r="B30" s="13"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="13"/>
       <c r="H30" s="4"/>
       <c r="I30" s="2"/>
     </row>
@@ -1174,18 +1305,14 @@
       <c r="I39" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B1:H1"/>
+    <mergeCell ref="F7:H7"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="B6:H26">
-    <cfRule type="expression" dxfId="1" priority="2">
+  <conditionalFormatting sqref="G8:H11 F7:F11 F6:H6 G13:H26 F14:F26 B31:H31 B6:B26 D6:E26 C18:C26 C6:C16">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>MONTH(B6)&lt;&gt;$B$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B31:H31">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>MONTH(B31)&lt;&gt;$B$1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1200,7 +1327,7 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
@@ -1213,15 +1340,15 @@
   <sheetData>
     <row r="1" spans="1:9" ht="92.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="10">
+      <c r="B1" s="19">
         <v>2</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21">
@@ -1356,7 +1483,7 @@
         <f t="shared" si="1"/>
         <v>43502</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="16">
         <f t="shared" si="1"/>
         <v>43503</v>
       </c>
@@ -1373,7 +1500,7 @@
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="17" t="s">
         <v>20</v>
       </c>
       <c r="H12" s="4"/>
@@ -1386,7 +1513,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="19"/>
+      <c r="G13" s="18"/>
       <c r="H13" s="4"/>
       <c r="I13" s="2"/>
     </row>
@@ -1397,7 +1524,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="19"/>
+      <c r="G14" s="18"/>
       <c r="H14" s="4"/>
       <c r="I14" s="2"/>
     </row>
@@ -1408,7 +1535,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="19"/>
+      <c r="G15" s="18"/>
       <c r="H15" s="4"/>
       <c r="I15" s="2"/>
     </row>
@@ -1418,15 +1545,15 @@
         <f>B11+7</f>
         <v>43505</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="16">
         <f t="shared" ref="C16:H16" si="2">C11+7</f>
         <v>43506</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="16">
         <f t="shared" si="2"/>
         <v>43507</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <f t="shared" si="2"/>
         <v>43508</v>
       </c>
@@ -1447,13 +1574,13 @@
     <row r="17" spans="1:9">
       <c r="A17" s="2"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="13" t="s">
         <v>23</v>
       </c>
       <c r="F17" s="8"/>
@@ -1466,7 +1593,7 @@
       <c r="B18" s="4"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="12"/>
+      <c r="E18" s="11"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="4"/>
@@ -1712,12 +1839,12 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B6:H26">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>MONTH(B6)&lt;&gt;$B$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:H31">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>MONTH(B31)&lt;&gt;$B$1</formula>
     </cfRule>
   </conditionalFormatting>
